--- a/data/trans_dic/P08_1_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P08_1_R-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.007182710659173724</v>
+        <v>0.007372210542746809</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007862392894879382</v>
+        <v>0.007592812993008307</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003730903576578526</v>
+        <v>0.003656361962016744</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01266176941125715</v>
+        <v>0.0131324947377858</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01977264754302603</v>
+        <v>0.01945488633697455</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01654024208123919</v>
+        <v>0.01670555042655177</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003597511453000138</v>
+        <v>0.00365605305814378</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01212696236772281</v>
+        <v>0.01250650108634905</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01685241796351714</v>
+        <v>0.015986088451961</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.009864037690844598</v>
+        <v>0.01056706796417105</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.006449894249756138</v>
+        <v>0.005863390961152131</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02997721880811051</v>
+        <v>0.03062962431908684</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03271589828740136</v>
+        <v>0.03206197002280771</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02119647886048583</v>
+        <v>0.01917108807675967</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04870127139391026</v>
+        <v>0.04888764486800676</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04208185177888941</v>
+        <v>0.04279298835705301</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05675699207812255</v>
+        <v>0.05752950610631811</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.05234808167033848</v>
+        <v>0.05025398930815909</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04513942904874545</v>
+        <v>0.04546783122832223</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03017926878982128</v>
+        <v>0.03141508258296564</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03810011172650039</v>
+        <v>0.03895026619179275</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02889215786010538</v>
+        <v>0.02939424602881431</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03734943785195844</v>
+        <v>0.03299027520440509</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.03943362583630775</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.03146389670765878</v>
+        <v>0.03146389670765879</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01988968641892664</v>
+        <v>0.01926966404532395</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02329664818926028</v>
+        <v>0.02279159921974235</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02101739576709925</v>
+        <v>0.02173498528971042</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02946201954449059</v>
+        <v>0.02899981258296801</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03322034335966702</v>
+        <v>0.03362052601579658</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03054380196912635</v>
+        <v>0.03070171140139014</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02918160305179005</v>
+        <v>0.03019281935645072</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.005792928316955969</v>
+        <v>0.005882557359831997</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03050137631576273</v>
+        <v>0.02923584753557883</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03086490308823261</v>
+        <v>0.03071195764947426</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02991961862369872</v>
+        <v>0.029454754979248</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01933848117612149</v>
+        <v>0.01971978314920841</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04824448686179397</v>
+        <v>0.04531400976567667</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05271283003034691</v>
+        <v>0.05262399131937455</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05184662370721851</v>
+        <v>0.0523930474666897</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08627033445518265</v>
+        <v>0.08571891533792679</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07014580110425202</v>
+        <v>0.07025857147250546</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06628978091236286</v>
+        <v>0.06691780147305038</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.06489898410877244</v>
+        <v>0.06358026478401582</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02748724271112126</v>
+        <v>0.02566646843473496</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05141716118295961</v>
+        <v>0.05138084133478525</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05274087162665293</v>
+        <v>0.05395534882733188</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0536399975975077</v>
+        <v>0.05496532248373037</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04809822230422701</v>
+        <v>0.04914908989354153</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02745526442167424</v>
+        <v>0.02788456475290324</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04530172708294851</v>
+        <v>0.04502050193071445</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03595698730378039</v>
+        <v>0.03795885828223273</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03395914320564869</v>
+        <v>0.03434184473916269</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06164661751087367</v>
+        <v>0.06160368539762186</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.09242101878370076</v>
+        <v>0.08980405077902189</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05796244693025608</v>
+        <v>0.05673309024389425</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.06260491240673019</v>
+        <v>0.06197343727377215</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0495668386771527</v>
+        <v>0.0491621338794298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07367933425075837</v>
+        <v>0.07249000068972791</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.05074364964120637</v>
+        <v>0.05015481607552311</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05251725153693682</v>
+        <v>0.05232832075810921</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05881376567113579</v>
+        <v>0.06043998970549456</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.08334562727069643</v>
+        <v>0.08344720560104062</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.069491146813162</v>
+        <v>0.07273074898388572</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07072148679771081</v>
+        <v>0.07160467060213965</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1024271989316073</v>
+        <v>0.1025048851160692</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1416164409258516</v>
+        <v>0.139057549029444</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09772037661586182</v>
+        <v>0.09654619591278603</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09923366121859742</v>
+        <v>0.09861122559835644</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07505804826088287</v>
+        <v>0.07601282114938981</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1028930778749532</v>
+        <v>0.1064429884251776</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.0779732415099914</v>
+        <v>0.07699514350619791</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.07918281928781686</v>
+        <v>0.07773539989971617</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05170058908453452</v>
+        <v>0.05222065280299688</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08600842368620124</v>
+        <v>0.08489042414763449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09131399731195521</v>
+        <v>0.09355441076963135</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09243129620446842</v>
+        <v>0.09183445815096362</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1254705426546615</v>
+        <v>0.1193663861891282</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.136811451368622</v>
+        <v>0.1366414990846158</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1297279788365001</v>
+        <v>0.1287122534438666</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1196151171954648</v>
+        <v>0.1186685644968042</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.09393541072670825</v>
+        <v>0.09414991154975001</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1184850063557533</v>
+        <v>0.1184772919182241</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1168168234601108</v>
+        <v>0.1183561039808217</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1130725834581911</v>
+        <v>0.1124417782735939</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09684268240189881</v>
+        <v>0.09558224149161824</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1407202670482022</v>
+        <v>0.1350613953750383</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1441098553894418</v>
+        <v>0.1466932859387699</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1444085976197924</v>
+        <v>0.1450253106820906</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1898052957657639</v>
+        <v>0.1842781085588743</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1985999542859</v>
+        <v>0.2000121260319591</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1868578972677761</v>
+        <v>0.1862101175922245</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1594003135344128</v>
+        <v>0.1570249233250313</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1329785892673244</v>
+        <v>0.1319200553774621</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1605029533406515</v>
+        <v>0.1598957094344706</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1576876948000996</v>
+        <v>0.1580582200183982</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1465397323032554</v>
+        <v>0.1458510787991503</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.3161950991159891</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2517500697101344</v>
+        <v>0.2517500697101345</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.2419785060502708</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1663161694135185</v>
+        <v>0.164739870395718</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1547632645893013</v>
+        <v>0.1588528081975846</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1552112386914853</v>
+        <v>0.1515551878213773</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1672949109507466</v>
+        <v>0.1664463257359537</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2345320593739005</v>
+        <v>0.2336355998071031</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3265366309450302</v>
+        <v>0.3295046348584577</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2740291642263064</v>
+        <v>0.2749824234615035</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2259718725596914</v>
+        <v>0.2252091886041221</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2107949648506334</v>
+        <v>0.2165224183927777</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2564769545545507</v>
+        <v>0.2572753333113446</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2276069490103047</v>
+        <v>0.2264379233313306</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2044689282262841</v>
+        <v>0.2021253739944256</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2524017696825436</v>
+        <v>0.244928574561919</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2347404450642158</v>
+        <v>0.2378236475000986</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2315095718992475</v>
+        <v>0.2289670800729051</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2298555152658841</v>
+        <v>0.2308579371681202</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.325403097643422</v>
+        <v>0.3220766865239428</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.424287075302584</v>
+        <v>0.4209588692498083</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3628348449182477</v>
+        <v>0.3681518435581735</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2809463007557836</v>
+        <v>0.2829164093132438</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2700223470594857</v>
+        <v>0.2774508212852221</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3193017320944492</v>
+        <v>0.3211406425481542</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2871663038587503</v>
+        <v>0.2855180623193591</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2464272050614958</v>
+        <v>0.2437222691139633</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.3921859829327414</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.3127820710121312</v>
+        <v>0.3127820710121313</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2194758697035608</v>
+        <v>0.2237195617553486</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2907957829975408</v>
+        <v>0.2912711805980402</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2607082009667397</v>
+        <v>0.2616034022678908</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.195455319560371</v>
+        <v>0.1938314729110808</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.4833069641100475</v>
+        <v>0.4824939008724286</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4966768857188124</v>
+        <v>0.4881101829941987</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4142631546483163</v>
+        <v>0.4158337911270246</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.3573349061235748</v>
+        <v>0.3567629432324788</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.3729134645644231</v>
+        <v>0.3732313408263633</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.4112166590386639</v>
+        <v>0.4129804870938615</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.3566236015384775</v>
+        <v>0.3587997726879026</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2888307671686939</v>
+        <v>0.2886000843983709</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3190634006673994</v>
+        <v>0.3206510116470543</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4043262398617252</v>
+        <v>0.4050421189652391</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3631099724509866</v>
+        <v>0.3632876822139499</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.264293931603068</v>
+        <v>0.2636977152869076</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5814350184795348</v>
+        <v>0.5823069371081055</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6012659844826619</v>
+        <v>0.5994150601107099</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5217273329042604</v>
+        <v>0.5209333429106957</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4267703714478711</v>
+        <v>0.4251457601478775</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.4522946134028664</v>
+        <v>0.4489222819544751</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4911221022087089</v>
+        <v>0.4954315235105977</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4325374888874389</v>
+        <v>0.4287371543458769</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.338464338605972</v>
+        <v>0.3375131502426039</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.6997395259750632</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.7390409224732729</v>
+        <v>0.7390409224732728</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.6711512178371444</v>
@@ -1513,7 +1513,7 @@
         <v>0.6446762841165389</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6429933404482776</v>
+        <v>0.6429933404482775</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4590485174904383</v>
+        <v>0.4652064974810243</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6155190270731362</v>
+        <v>0.6064015952071402</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4944393741831932</v>
+        <v>0.4987826579853503</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4488657641578994</v>
+        <v>0.4489204606507127</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.7049111698603017</v>
+        <v>0.7067725004860006</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.7662732371961811</v>
+        <v>0.7653157989455811</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6464142668012999</v>
+        <v>0.6461899624069013</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.7126605697054818</v>
+        <v>0.7056089927088185</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.6245273140195179</v>
+        <v>0.6289869929820691</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.7194422790620023</v>
+        <v>0.7198420155247942</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.60608830346066</v>
+        <v>0.6048569210000719</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.614478732574532</v>
+        <v>0.6131660044020936</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5993584231778639</v>
+        <v>0.5992725090157639</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7382316134122647</v>
+        <v>0.7357647239758712</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6106407604839204</v>
+        <v>0.6154835318230845</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5456282824462928</v>
+        <v>0.5461783075960348</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.8077122864514146</v>
+        <v>0.8086052603509323</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.847348978582922</v>
+        <v>0.8487420941739385</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.745599599551572</v>
+        <v>0.7473913366753191</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7703145278214046</v>
+        <v>0.7659632222805949</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7102652619139138</v>
+        <v>0.710619372865757</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7902199954375185</v>
+        <v>0.7902876147889734</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.6801809181787246</v>
+        <v>0.6856426960743438</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.6679284343052748</v>
+        <v>0.668541788214375</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1011213096550682</v>
+        <v>0.1014001355431035</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.135658691816509</v>
+        <v>0.1334273478283065</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1278860683030762</v>
+        <v>0.1264990985291969</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1334884260398892</v>
+        <v>0.1337342598383922</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2002753438376749</v>
+        <v>0.2025992939548414</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.2393459071303144</v>
+        <v>0.2379967070021507</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2129777440911739</v>
+        <v>0.2111016324333862</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2114499404722376</v>
+        <v>0.2109039134789336</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1548568039672117</v>
+        <v>0.1552707767782657</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1910438140241653</v>
+        <v>0.1913351664282692</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1732995289098441</v>
+        <v>0.1733610084496658</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1768177039552378</v>
+        <v>0.1764315771655129</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1226355675215334</v>
+        <v>0.1226101072644325</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1608382411302677</v>
+        <v>0.1592762756828556</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1511042882178069</v>
+        <v>0.1508598685778452</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1572366495413056</v>
+        <v>0.1572356640805934</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.228585298546577</v>
+        <v>0.2301422573582375</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.2692585622680434</v>
+        <v>0.2684102749537558</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2408640631379693</v>
+        <v>0.2416316425710842</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2330756651412099</v>
+        <v>0.2324691972835762</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1729332509087108</v>
+        <v>0.1728210640319993</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2109624468616828</v>
+        <v>0.2107990340238107</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1935322187205483</v>
+        <v>0.1924570061218403</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1931830534243041</v>
+        <v>0.1927015974805429</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3549</v>
+        <v>3642</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3571</v>
+        <v>3448</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1521</v>
+        <v>1491</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5919</v>
+        <v>6139</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8507</v>
+        <v>8370</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6546</v>
+        <v>6611</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1304</v>
+        <v>1325</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>11661</v>
+        <v>12026</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>14904</v>
+        <v>14138</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>8041</v>
+        <v>8614</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4968</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14811</v>
+        <v>15133</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14858</v>
+        <v>14561</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>8891</v>
+        <v>8042</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19860</v>
+        <v>19936</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19673</v>
+        <v>20005</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>24419</v>
+        <v>24751</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20717</v>
+        <v>19888</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16364</v>
+        <v>16483</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>29019</v>
+        <v>30207</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>33695</v>
+        <v>34447</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>23553</v>
+        <v>23963</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>28770</v>
+        <v>25413</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14629</v>
+        <v>14173</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16007</v>
+        <v>15660</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12411</v>
+        <v>12834</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14050</v>
+        <v>13830</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>20779</v>
+        <v>21029</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>18640</v>
+        <v>18736</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>16445</v>
+        <v>17015</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2907</v>
+        <v>2951</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>41512</v>
+        <v>39789</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>40042</v>
+        <v>39844</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>34528</v>
+        <v>33992</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>18925</v>
+        <v>19298</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35483</v>
+        <v>33328</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36218</v>
+        <v>36157</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30615</v>
+        <v>30938</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>41141</v>
+        <v>40878</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>43876</v>
+        <v>43946</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>40454</v>
+        <v>40837</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>36573</v>
+        <v>35830</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13791</v>
+        <v>12878</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>69978</v>
+        <v>69928</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>68423</v>
+        <v>69999</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>61903</v>
+        <v>63432</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>47070</v>
+        <v>48098</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17535</v>
+        <v>17809</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>30890</v>
+        <v>30698</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24059</v>
+        <v>25398</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>21083</v>
+        <v>21321</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>42520</v>
+        <v>42491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>65697</v>
+        <v>63837</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>38336</v>
+        <v>37522</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>38975</v>
+        <v>38582</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>65845</v>
+        <v>65308</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>102614</v>
+        <v>100958</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>67514</v>
+        <v>66730</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>65300</v>
+        <v>65065</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37562</v>
+        <v>38601</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>56830</v>
+        <v>56900</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>46496</v>
+        <v>48664</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>43907</v>
+        <v>44455</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>70649</v>
+        <v>70702</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>100668</v>
+        <v>98849</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>64631</v>
+        <v>63854</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>61779</v>
+        <v>61391</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>99708</v>
+        <v>100976</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>143300</v>
+        <v>148244</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>103742</v>
+        <v>102441</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>98455</v>
+        <v>96656</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>26840</v>
+        <v>27110</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>52862</v>
+        <v>52175</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>58993</v>
+        <v>60441</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>64759</v>
+        <v>64341</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>64698</v>
+        <v>61550</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>84303</v>
+        <v>84198</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>84203</v>
+        <v>83544</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>88143</v>
+        <v>87445</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>97203</v>
+        <v>97425</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>145833</v>
+        <v>145824</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>151292</v>
+        <v>153286</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>162542</v>
+        <v>161636</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>50276</v>
+        <v>49621</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>86489</v>
+        <v>83011</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>93102</v>
+        <v>94771</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>101175</v>
+        <v>101607</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>97872</v>
+        <v>95022</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>122377</v>
+        <v>123247</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>121285</v>
+        <v>120865</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>117460</v>
+        <v>115709</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>137605</v>
+        <v>136509</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>197550</v>
+        <v>196802</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>204225</v>
+        <v>204705</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>210651</v>
+        <v>209662</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>64316</v>
+        <v>63707</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>66460</v>
+        <v>68216</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>74178</v>
+        <v>72431</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>101940</v>
+        <v>101423</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>94748</v>
+        <v>94386</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>146223</v>
+        <v>147552</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>136151</v>
+        <v>136625</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>137584</v>
+        <v>137120</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>166675</v>
+        <v>171203</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>224989</v>
+        <v>225689</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>221864</v>
+        <v>220724</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>249084</v>
+        <v>246230</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>97606</v>
+        <v>94716</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>100804</v>
+        <v>102128</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>110643</v>
+        <v>109427</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>140062</v>
+        <v>140672</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>131458</v>
+        <v>130114</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>189996</v>
+        <v>188505</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>180274</v>
+        <v>182916</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>171056</v>
+        <v>172255</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>213506</v>
+        <v>219379</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>280101</v>
+        <v>281714</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>279920</v>
+        <v>278314</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>300198</v>
+        <v>296903</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>64215</v>
+        <v>65457</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>90084</v>
+        <v>90232</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>87163</v>
+        <v>87462</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>79566</v>
+        <v>78905</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>165742</v>
+        <v>165464</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>175822</v>
+        <v>172789</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>156493</v>
+        <v>157086</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>156929</v>
+        <v>156678</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>236993</v>
+        <v>237195</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>272958</v>
+        <v>274129</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>253949</v>
+        <v>255498</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>244422</v>
+        <v>244227</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>93353</v>
+        <v>93817</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>125255</v>
+        <v>125476</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>121399</v>
+        <v>121458</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>107589</v>
+        <v>107346</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>199394</v>
+        <v>199693</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>212846</v>
+        <v>212191</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>197089</v>
+        <v>196789</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>187423</v>
+        <v>186710</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>287441</v>
+        <v>285298</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>325998</v>
+        <v>328859</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>308006</v>
+        <v>305300</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>286424</v>
+        <v>285619</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>96346</v>
+        <v>97639</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>153788</v>
+        <v>151510</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>127070</v>
+        <v>128186</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>139237</v>
+        <v>139254</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>235375</v>
+        <v>235997</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>298064</v>
+        <v>297692</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>258675</v>
+        <v>258585</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>331109</v>
+        <v>327832</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>339612</v>
+        <v>342037</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>459601</v>
+        <v>459857</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>398301</v>
+        <v>397492</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>476102</v>
+        <v>475085</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>125795</v>
+        <v>125777</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>184448</v>
+        <v>183832</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>156933</v>
+        <v>158178</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>169253</v>
+        <v>169423</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>269702</v>
+        <v>270000</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>329601</v>
+        <v>330143</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>298366</v>
+        <v>299083</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>357895</v>
+        <v>355873</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>386236</v>
+        <v>386428</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>504816</v>
+        <v>504859</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>446992</v>
+        <v>450582</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>517516</v>
+        <v>517991</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>331328</v>
+        <v>332242</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>464872</v>
+        <v>457226</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>434090</v>
+        <v>429382</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>471583</v>
+        <v>472451</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>676770</v>
+        <v>684623</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>851667</v>
+        <v>846866</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>754909</v>
+        <v>748259</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>790044</v>
+        <v>788004</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1030687</v>
+        <v>1033442</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1334458</v>
+        <v>1336493</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1202507</v>
+        <v>1202933</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1285302</v>
+        <v>1282495</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>401821</v>
+        <v>401737</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>551157</v>
+        <v>545805</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>512901</v>
+        <v>512071</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>555480</v>
+        <v>555476</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>772435</v>
+        <v>777696</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>958105</v>
+        <v>955087</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>853753</v>
+        <v>856474</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>870845</v>
+        <v>868579</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1150999</v>
+        <v>1150252</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1473591</v>
+        <v>1472450</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1342899</v>
+        <v>1335438</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1404263</v>
+        <v>1400763</v>
       </c>
     </row>
     <row r="36">
